--- a/Магистерская/Схема БД.xlsx
+++ b/Магистерская/Схема БД.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkuzu\OneDrive\Desktop\ASU\Магистерская\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F15541-3E84-497C-B9A0-7BF8F013102A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540B2A77-9A80-43C6-9387-867F184E82FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>Название таблицы</t>
   </si>
@@ -190,6 +190,57 @@
   </si>
   <si>
     <t>book_date</t>
+  </si>
+  <si>
+    <t>статус бронирования</t>
+  </si>
+  <si>
+    <t>user-service</t>
+  </si>
+  <si>
+    <t>flight-service</t>
+  </si>
+  <si>
+    <t>api-gateway</t>
+  </si>
+  <si>
+    <t>booking-service</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>hotel-service</t>
+  </si>
+  <si>
+    <t>hotel_id</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>тип номера</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
+    <t>room_id</t>
+  </si>
+  <si>
+    <t>date_arrival</t>
+  </si>
+  <si>
+    <t>date_departure</t>
   </si>
 </sst>
 </file>
@@ -213,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -374,17 +425,78 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -392,10 +504,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -405,33 +537,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -445,12 +551,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,27 +574,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,484 +887,732 @@
     <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
+      <c r="D2" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="12" t="s">
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
+      <c r="D5" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="12" t="s">
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
+      <c r="D8" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12" t="s">
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9" t="s">
+      <c r="D12" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9" t="s">
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="12" t="s">
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15"/>
+      <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="10" t="s">
+      <c r="D16" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10" t="s">
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10" t="s">
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="10" t="s">
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="14" t="s">
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="10" t="s">
+      <c r="D22" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="10" t="s">
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="10" t="s">
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="10" t="s">
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="10" t="s">
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="16" t="s">
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="15"/>
+      <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="10" t="s">
+      <c r="D29" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="10" t="s">
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
-      <c r="B32" s="14" t="s">
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14"/>
+      <c r="B32" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="10" t="s">
+      <c r="D33" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="10" t="s">
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="16" t="s">
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="15"/>
+      <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="10" t="s">
+      <c r="D37" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="10" t="s">
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
-      <c r="B40" s="14" t="s">
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
+      <c r="B40" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="10" t="s">
+      <c r="D41" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="10" t="s">
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="10" t="s">
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="10" t="s">
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="10" t="s">
+      <c r="D45" s="19"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7"/>
-      <c r="B47" s="16" t="s">
+      <c r="D46" s="19"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="15"/>
+      <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="10" t="s">
+      <c r="D48" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="10" t="s">
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6"/>
-      <c r="B51" s="14" t="s">
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="14"/>
+      <c r="B51" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="10" t="s">
+      <c r="D52" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="10" t="s">
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="14" t="s">
+      <c r="D54" s="19"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="7"/>
-      <c r="B56" s="16" t="s">
+      <c r="D55" s="19"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="15"/>
+      <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="17" t="s">
+      <c r="D57" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
+      <c r="B58" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="17"/>
+      <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="17" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
+      <c r="B60" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="17" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="19"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="17"/>
+      <c r="B61" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="22"/>
-      <c r="B61" s="19" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="18"/>
+      <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="19"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="17"/>
+      <c r="B64" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="17"/>
+      <c r="B65" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="17"/>
+      <c r="B66" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="18"/>
+      <c r="B67" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="17"/>
+      <c r="B69" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="17"/>
+      <c r="B70" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="17"/>
+      <c r="B71" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="18"/>
+      <c r="B72" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="25"/>
+      <c r="B75" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="25"/>
+      <c r="B76" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="25"/>
+      <c r="B77" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="25"/>
+      <c r="B78" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="26"/>
+      <c r="B79" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="28">
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D21"/>
     <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A57:A62"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A22:A28"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Магистерская/Схема БД.xlsx
+++ b/Магистерская/Схема БД.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkuzu\OneDrive\Desktop\ASU\Магистерская\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540B2A77-9A80-43C6-9387-867F184E82FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C340B4-187E-411A-9DD6-4CF672C88E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -565,14 +565,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,21 +584,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -877,20 +884,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -899,573 +906,573 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
       <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
       <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
       <c r="B30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
       <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14"/>
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
       <c r="B32" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
       <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
+      <c r="D34" s="20"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
       <c r="B35" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
       <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
       <c r="B38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="19"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
       <c r="B39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="19"/>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="14"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
       <c r="B40" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="14"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
       <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="19"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
       <c r="B43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="19"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
       <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="19"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
       <c r="B45" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
       <c r="B46" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="15"/>
+      <c r="D46" s="20"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="26"/>
       <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="19"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="D47" s="20"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
       <c r="B49" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="19"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="14"/>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
       <c r="B50" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="14"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="25"/>
       <c r="B51" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
       <c r="B53" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="19"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
       <c r="B54" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="19"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
       <c r="B55" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="19"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="15"/>
+      <c r="D55" s="20"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26"/>
       <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="19"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="23" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="19"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
       <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="19"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
       <c r="B60" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="19"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
+      <c r="D60" s="20"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
       <c r="B61" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="19"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="18"/>
+      <c r="D61" s="20"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
       <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="19"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="20" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="22"/>
+      <c r="B64" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="20" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="22"/>
+      <c r="B65" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="3"/>
@@ -1473,32 +1480,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="20" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="22"/>
+      <c r="B66" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="18"/>
-      <c r="B67" s="22" t="s">
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="23"/>
+      <c r="B67" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="20" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="22"/>
+      <c r="B69" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C69" s="3"/>
@@ -1506,48 +1513,48 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="20" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="22"/>
+      <c r="B70" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="20" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="22"/>
+      <c r="B71" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="18"/>
-      <c r="B72" s="22" t="s">
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="23"/>
+      <c r="B72" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="27" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="24" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="28"/>
+      <c r="B74" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="25"/>
-      <c r="B75" s="24" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="28"/>
+      <c r="B75" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C75" s="3"/>
@@ -1555,64 +1562,65 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="25"/>
-      <c r="B76" s="24" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="28"/>
+      <c r="B76" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="25"/>
-      <c r="B77" s="24" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="24" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="B78" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="26"/>
-      <c r="B79" s="28" t="s">
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="29"/>
+      <c r="B79" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="A48:A51"/>
+  <mergeCells count="29">
+    <mergeCell ref="A73:A79"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Магистерская/Схема БД.xlsx
+++ b/Магистерская/Схема БД.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkuzu\OneDrive\Desktop\ASU\Магистерская\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C340B4-187E-411A-9DD6-4CF672C88E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A56A2-B336-44BB-A499-F88285FAD472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="93">
   <si>
     <t>Название таблицы</t>
   </si>
@@ -241,19 +242,96 @@
   </si>
   <si>
     <t>date_departure</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>patronymic</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>tokens</t>
+  </si>
+  <si>
+    <t>expires_at</t>
+  </si>
+  <si>
+    <t>user_agent</t>
+  </si>
+  <si>
+    <t>ip_address</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>permissions</t>
+  </si>
+  <si>
+    <t>rule_id</t>
+  </si>
+  <si>
+    <t>icon_link</t>
+  </si>
+  <si>
+    <t>visa_rule</t>
+  </si>
+  <si>
+    <t>booking_hotel</t>
+  </si>
+  <si>
+    <t>booking_plane</t>
+  </si>
+  <si>
+    <t>fight_seat_id</t>
+  </si>
+  <si>
+    <t>people_id</t>
+  </si>
+  <si>
+    <t>passport_data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -264,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -547,11 +625,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -572,6 +730,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,23 +760,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,555 +1092,555 @@
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="20"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="20"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="20"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="20"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="20"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="20"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="20"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="26" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="20"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="20"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="20"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="20"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="20"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="26" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="20"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="20"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="20"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="20"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="20"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="20"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="20"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="20"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="20"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="20"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="20"/>
+      <c r="D39" s="26"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="20"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="20"/>
+      <c r="D42" s="26"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="20"/>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="20"/>
+      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="20"/>
+      <c r="D45" s="26"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="20"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="20"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="20"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="20"/>
+      <c r="D50" s="26"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="20"/>
+      <c r="D51" s="26"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="23" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="20"/>
+      <c r="D53" s="26"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="20"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="20"/>
+      <c r="D55" s="26"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="20"/>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="20" t="s">
+      <c r="D57" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="20"/>
+      <c r="D58" s="26"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="20"/>
+      <c r="D59" s="26"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="20"/>
+      <c r="D60" s="26"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="20"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="20"/>
+      <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -1464,14 +1649,14 @@
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="13" t="s">
         <v>4</v>
       </c>
@@ -1481,21 +1666,21 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
+      <c r="A67" s="29"/>
       <c r="B67" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="27" t="s">
         <v>60</v>
       </c>
       <c r="B68" s="14" t="s">
@@ -1504,7 +1689,7 @@
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="13" t="s">
         <v>65</v>
       </c>
@@ -1514,14 +1699,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="13" t="s">
         <v>51</v>
       </c>
@@ -1530,14 +1715,14 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="20" t="s">
         <v>68</v>
       </c>
       <c r="B73" s="18" t="s">
@@ -1546,14 +1731,14 @@
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="17" t="s">
         <v>35</v>
       </c>
@@ -1563,28 +1748,28 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="19" t="s">
         <v>20</v>
       </c>
@@ -1592,6 +1777,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D21"/>
     <mergeCell ref="A73:A79"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A2:A4"/>
@@ -1604,23 +1806,796 @@
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="A48:A51"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D764F63-32AF-48A7-9328-4F37FDB78F10}">
+  <dimension ref="A1:K102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="2" max="2" width="79.28515625" customWidth="1"/>
+    <col min="3" max="3" width="103" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
+      <c r="B31" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25"/>
+      <c r="B43" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
+      <c r="B47" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="24"/>
+      <c r="B50" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+      <c r="B52" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="25"/>
+      <c r="B54" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="24"/>
+      <c r="B58" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="B60" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="25"/>
+      <c r="B63" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="B65" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="28"/>
+      <c r="B66" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="28"/>
+      <c r="B67" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="28"/>
+      <c r="B68" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="29"/>
+      <c r="B69" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="28"/>
+      <c r="B72" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="28"/>
+      <c r="B73" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="29"/>
+      <c r="B74" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="28"/>
+      <c r="B76" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="B78" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="29"/>
+      <c r="B79" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="22"/>
+      <c r="B87" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="21"/>
+      <c r="B89" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="21"/>
+      <c r="B90" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="21"/>
+      <c r="B91" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="21"/>
+      <c r="B92" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="21"/>
+      <c r="B93" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="22"/>
+      <c r="B95" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="34"/>
+      <c r="B97" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="34"/>
+      <c r="B98" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="34"/>
+      <c r="B99" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="34"/>
+      <c r="B100" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="34"/>
+      <c r="B101" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="34"/>
+      <c r="B102" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Магистерская/Схема БД.xlsx
+++ b/Магистерская/Схема БД.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkuzu\OneDrive\Desktop\ASU\Магистерская\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A56A2-B336-44BB-A499-F88285FAD472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203322E8-E15F-421D-BBD8-5BA0044CEAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17565" yWindow="1755" windowWidth="11055" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -730,23 +730,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,20 +751,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -783,9 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,555 +1092,555 @@
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="26"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="26"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="26"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="26"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="26"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="26"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="26"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="26"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="26"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="26"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="23" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="26"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="26"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="26"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="26"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="26"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="26"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="26"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="26"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="26"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="26"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="26"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="26"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="26"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="26"/>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="26"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="26"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="26"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="26"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="26"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="26"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="26"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="26"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="26"/>
+      <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="27" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="26"/>
+      <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="26"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="26"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="26"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="26"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="26"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="26"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="26"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="26"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -1649,14 +1649,14 @@
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="13" t="s">
         <v>4</v>
       </c>
@@ -1666,21 +1666,21 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B68" s="14" t="s">
@@ -1689,7 +1689,7 @@
       <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="13" t="s">
         <v>65</v>
       </c>
@@ -1699,14 +1699,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="13" t="s">
         <v>51</v>
       </c>
@@ -1715,14 +1715,14 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="29"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B73" s="18" t="s">
@@ -1731,14 +1731,14 @@
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="17" t="s">
         <v>35</v>
       </c>
@@ -1748,28 +1748,28 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
+      <c r="A77" s="31"/>
       <c r="B77" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="19" t="s">
         <v>20</v>
       </c>
@@ -1777,23 +1777,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A62"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D21"/>
     <mergeCell ref="A73:A79"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A2:A4"/>
@@ -1806,6 +1789,23 @@
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:A47"/>
     <mergeCell ref="A48:A51"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D764F63-32AF-48A7-9328-4F37FDB78F10}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1827,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -1836,228 +1836,228 @@
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="B8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="B16" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="21" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="31" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2065,19 +2065,19 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2085,19 +2085,19 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2105,25 +2105,25 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2131,25 +2131,25 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="28" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -2157,25 +2157,25 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="7" t="s">
@@ -2183,25 +2183,25 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -2209,25 +2209,25 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B48" s="7" t="s">
@@ -2235,43 +2235,43 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -2279,25 +2279,25 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="27" t="s">
         <v>50</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -2305,31 +2305,31 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -2337,37 +2337,37 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B70" s="14" t="s">
@@ -2375,31 +2375,31 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B75" s="14" t="s">
@@ -2407,31 +2407,31 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="30" t="s">
         <v>88</v>
       </c>
       <c r="B80" s="18" t="s">
@@ -2439,49 +2439,49 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="30" t="s">
         <v>89</v>
       </c>
       <c r="B88" s="18" t="s">
@@ -2489,93 +2489,103 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="38" t="s">
+      <c r="A96" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="34"/>
-      <c r="B97" s="31" t="s">
+      <c r="B97" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="34"/>
-      <c r="B98" s="31" t="s">
+      <c r="B98" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="34"/>
-      <c r="B99" s="31" t="s">
+      <c r="B99" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="34"/>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="21" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="34"/>
-      <c r="B101" s="31" t="s">
+      <c r="B101" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="34"/>
-      <c r="B102" s="31" t="s">
+      <c r="B102" s="21" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
     <mergeCell ref="A75:A79"/>
     <mergeCell ref="A80:A87"/>
     <mergeCell ref="A88:A95"/>
@@ -2586,16 +2596,6 @@
     <mergeCell ref="A59:A63"/>
     <mergeCell ref="A64:A69"/>
     <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
